--- a/data/input/employee_absence_data_41.xlsx
+++ b/data/input/employee_absence_data_41.xlsx
@@ -464,185 +464,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>59455</v>
+        <v>95206</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cauã Vasconcelos</t>
+          <t>Asafe Câmara</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45098</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>8246.469999999999</v>
+        <v>8499.700000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>551</v>
+        <v>58318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Milena Fogaça</t>
+          <t>Sra. Lavínia Freitas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45101</v>
+        <v>45090</v>
       </c>
       <c r="G3" t="n">
-        <v>8641.65</v>
+        <v>3093.69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61658</v>
+        <v>21043</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Maria Cecília Cunha</t>
+          <t>Cauê da Rosa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45084</v>
+        <v>45088</v>
       </c>
       <c r="G4" t="n">
-        <v>11917.52</v>
+        <v>9096.559999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19477</v>
+        <v>30027</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Olívia Dias</t>
+          <t>Kaique da Luz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>2582.88</v>
+        <v>6098.18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45415</v>
+        <v>92066</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Henry Borges</t>
+          <t>Isabel Montenegro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45103</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>4691.84</v>
+        <v>8496.190000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35021</v>
+        <v>55566</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rebeca Albuquerque</t>
+          <t>João Miguel Pires</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45082</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>8593.629999999999</v>
+        <v>5521.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>79937</v>
+        <v>11577</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Sophia Pastor</t>
+          <t>André Vargas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,60 +652,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G8" t="n">
-        <v>3148.21</v>
+        <v>2180.11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>80799</v>
+        <v>49394</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Ribeiro</t>
+          <t>Sr. Lorenzo Cavalcante</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45078</v>
+        <v>45085</v>
       </c>
       <c r="G9" t="n">
-        <v>4835.8</v>
+        <v>8708.01</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>86140</v>
+        <v>45996</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Danilo Cirino</t>
+          <t>Sr. Ian Moura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45084</v>
+        <v>45093</v>
       </c>
       <c r="G10" t="n">
-        <v>7631.27</v>
+        <v>6480.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2424</v>
+        <v>51649</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Evelyn Viana</t>
+          <t>Marcelo Araújo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45078</v>
+        <v>45103</v>
       </c>
       <c r="G11" t="n">
-        <v>10781.28</v>
+        <v>9756.18</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_41.xlsx
+++ b/data/input/employee_absence_data_41.xlsx
@@ -464,74 +464,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95206</v>
+        <v>13014</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asafe Câmara</t>
+          <t>Ana Liz Rezende</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G2" t="n">
-        <v>8499.700000000001</v>
+        <v>7640.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>58318</v>
+        <v>7332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sra. Lavínia Freitas</t>
+          <t>Bernardo Camargo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45090</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>3093.69</v>
+        <v>5559.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>21043</v>
+        <v>10498</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cauê da Rosa</t>
+          <t>Heloísa Vargas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,27 +540,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45088</v>
+        <v>45080</v>
       </c>
       <c r="G4" t="n">
-        <v>9096.559999999999</v>
+        <v>3296.63</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30027</v>
+        <v>27563</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kaique da Luz</t>
+          <t>Dra. Maria Cecília Silveira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,80 +569,80 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45083</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>6098.18</v>
+        <v>4602.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>92066</v>
+        <v>34182</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isabel Montenegro</t>
+          <t>Dr. Gustavo Câmara</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45079</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>8496.190000000001</v>
+        <v>6261.49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>55566</v>
+        <v>62767</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>João Miguel Pires</t>
+          <t>Pietro Porto</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45104</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>5521.8</v>
+        <v>3762.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11577</v>
+        <v>64609</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>André Vargas</t>
+          <t>Sra. Sophie Borges</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -652,89 +652,89 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45090</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>2180.11</v>
+        <v>9289.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49394</v>
+        <v>25709</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sr. Lorenzo Cavalcante</t>
+          <t>Dra. Sara Montenegro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45085</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>8708.01</v>
+        <v>3969.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>45996</v>
+        <v>91923</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Ian Moura</t>
+          <t>Sra. Alice Novais</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="G10" t="n">
-        <v>6480.49</v>
+        <v>3338.51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51649</v>
+        <v>7336</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Marcelo Araújo</t>
+          <t>Leandro Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45103</v>
+        <v>45096</v>
       </c>
       <c r="G11" t="n">
-        <v>9756.18</v>
+        <v>7092.74</v>
       </c>
     </row>
   </sheetData>
